--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ebfad0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -551,112 +557,112 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr"/>
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>American Cancer Society</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr"/>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="n">
+      <c r="C2" s="4" t="inlineStr"/>
+      <c r="D2" s="4" t="inlineStr"/>
+      <c r="E2" s="4" t="inlineStr"/>
+      <c r="F2" s="4" t="inlineStr"/>
+      <c r="G2" s="4" t="inlineStr"/>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr"/>
+      <c r="J2" s="4" t="inlineStr"/>
+      <c r="K2" s="4" t="inlineStr"/>
+      <c r="L2" s="4" t="inlineStr"/>
+      <c r="M2" s="4" t="inlineStr"/>
+      <c r="N2" s="4" t="inlineStr"/>
+      <c r="O2" s="4" t="inlineStr"/>
+      <c r="P2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr"/>
-      <c r="S2" s="2" t="inlineStr"/>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U2" s="2" t="inlineStr"/>
-      <c r="V2" s="2" t="inlineStr"/>
+      <c r="Q2" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R2" s="4" t="inlineStr"/>
+      <c r="S2" s="4" t="inlineStr"/>
+      <c r="T2" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U2" s="4" t="inlineStr"/>
+      <c r="V2" s="4" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000412</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Bloomberg Philanthropies</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>A philanthropy organisation that is based in New York.</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr"/>
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>grant agency</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="n">
+      <c r="J3" s="4" t="inlineStr"/>
+      <c r="K3" s="4" t="inlineStr"/>
+      <c r="L3" s="4" t="inlineStr"/>
+      <c r="M3" s="4" t="inlineStr"/>
+      <c r="N3" s="4" t="inlineStr"/>
+      <c r="O3" s="4" t="inlineStr"/>
+      <c r="P3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R3" s="2" t="inlineStr"/>
-      <c r="S3" s="2" t="inlineStr">
+      <c r="Q3" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R3" s="4" t="inlineStr"/>
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t>JH; SC</t>
         </is>
       </c>
-      <c r="T3" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U3" s="2" t="inlineStr"/>
-      <c r="V3" s="2" t="inlineStr"/>
+      <c r="T3" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U3" s="4" t="inlineStr"/>
+      <c r="V3" s="4" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -729,88 +735,88 @@
       <c r="V4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr"/>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr"/>
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Canadian Cancer Society</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr"/>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="n">
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+      <c r="G5" s="4" t="inlineStr"/>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr"/>
+      <c r="J5" s="4" t="inlineStr"/>
+      <c r="K5" s="4" t="inlineStr"/>
+      <c r="L5" s="4" t="inlineStr"/>
+      <c r="M5" s="4" t="inlineStr"/>
+      <c r="N5" s="4" t="inlineStr"/>
+      <c r="O5" s="4" t="inlineStr"/>
+      <c r="P5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr"/>
-      <c r="S5" s="2" t="inlineStr"/>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr"/>
-      <c r="V5" s="2" t="inlineStr"/>
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R5" s="4" t="inlineStr"/>
+      <c r="S5" s="4" t="inlineStr"/>
+      <c r="T5" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U5" s="4" t="inlineStr"/>
+      <c r="V5" s="4" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr"/>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr"/>
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Cancer Council Australia</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="inlineStr"/>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="n">
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+      <c r="G6" s="4" t="inlineStr"/>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr"/>
+      <c r="J6" s="4" t="inlineStr"/>
+      <c r="K6" s="4" t="inlineStr"/>
+      <c r="L6" s="4" t="inlineStr"/>
+      <c r="M6" s="4" t="inlineStr"/>
+      <c r="N6" s="4" t="inlineStr"/>
+      <c r="O6" s="4" t="inlineStr"/>
+      <c r="P6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr"/>
-      <c r="S6" s="2" t="inlineStr"/>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr"/>
+      <c r="Q6" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R6" s="4" t="inlineStr"/>
+      <c r="S6" s="4" t="inlineStr"/>
+      <c r="T6" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U6" s="4" t="inlineStr"/>
+      <c r="V6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -883,46 +889,46 @@
       <c r="V7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr"/>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr"/>
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Cancer Society New Zealand</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
-      <c r="G8" s="2" t="inlineStr"/>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="n">
+      <c r="C8" s="4" t="inlineStr"/>
+      <c r="D8" s="4" t="inlineStr"/>
+      <c r="E8" s="4" t="inlineStr"/>
+      <c r="F8" s="4" t="inlineStr"/>
+      <c r="G8" s="4" t="inlineStr"/>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr"/>
+      <c r="J8" s="4" t="inlineStr"/>
+      <c r="K8" s="4" t="inlineStr"/>
+      <c r="L8" s="4" t="inlineStr"/>
+      <c r="M8" s="4" t="inlineStr"/>
+      <c r="N8" s="4" t="inlineStr"/>
+      <c r="O8" s="4" t="inlineStr"/>
+      <c r="P8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R8" s="2" t="inlineStr"/>
-      <c r="S8" s="2" t="inlineStr"/>
-      <c r="T8" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U8" s="2" t="inlineStr"/>
-      <c r="V8" s="2" t="inlineStr"/>
+      <c r="Q8" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R8" s="4" t="inlineStr"/>
+      <c r="S8" s="4" t="inlineStr"/>
+      <c r="T8" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U8" s="4" t="inlineStr"/>
+      <c r="V8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -999,90 +1005,90 @@
       <c r="V9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr"/>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr"/>
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Christchurch Health</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
-      <c r="G10" s="2" t="inlineStr"/>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr"/>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr"/>
-      <c r="S10" s="2" t="inlineStr"/>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr"/>
-      <c r="V10" s="2" t="inlineStr"/>
+      <c r="C10" s="4" t="inlineStr"/>
+      <c r="D10" s="4" t="inlineStr"/>
+      <c r="E10" s="4" t="inlineStr"/>
+      <c r="F10" s="4" t="inlineStr"/>
+      <c r="G10" s="4" t="inlineStr"/>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I10" s="4" t="inlineStr"/>
+      <c r="J10" s="4" t="inlineStr"/>
+      <c r="K10" s="4" t="inlineStr"/>
+      <c r="L10" s="4" t="inlineStr"/>
+      <c r="M10" s="4" t="inlineStr"/>
+      <c r="N10" s="4" t="inlineStr"/>
+      <c r="O10" s="4" t="inlineStr"/>
+      <c r="P10" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" s="4" t="inlineStr"/>
+      <c r="S10" s="4" t="inlineStr"/>
+      <c r="T10" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U10" s="4" t="inlineStr"/>
+      <c r="V10" s="4" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr"/>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr"/>
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>European Medicines Monitoring Agency</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
-      <c r="G11" s="2" t="inlineStr"/>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="n">
+      <c r="C11" s="4" t="inlineStr"/>
+      <c r="D11" s="4" t="inlineStr"/>
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr"/>
+      <c r="G11" s="4" t="inlineStr"/>
+      <c r="H11" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I11" s="4" t="inlineStr"/>
+      <c r="J11" s="4" t="inlineStr"/>
+      <c r="K11" s="4" t="inlineStr"/>
+      <c r="L11" s="4" t="inlineStr"/>
+      <c r="M11" s="4" t="inlineStr"/>
+      <c r="N11" s="4" t="inlineStr"/>
+      <c r="O11" s="4" t="inlineStr"/>
+      <c r="P11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R11" s="2" t="inlineStr"/>
-      <c r="S11" s="2" t="inlineStr"/>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U11" s="2" t="inlineStr"/>
-      <c r="V11" s="2" t="inlineStr"/>
+      <c r="Q11" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R11" s="4" t="inlineStr"/>
+      <c r="S11" s="4" t="inlineStr"/>
+      <c r="T11" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U11" s="4" t="inlineStr"/>
+      <c r="V11" s="4" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -1361,50 +1367,50 @@
       <c r="V15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr"/>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr"/>
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>National Institute for Health and Care Excellence</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr"/>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr"/>
+      <c r="D16" s="4" t="inlineStr"/>
+      <c r="E16" s="4" t="inlineStr"/>
+      <c r="F16" s="4" t="inlineStr"/>
+      <c r="G16" s="4" t="inlineStr"/>
+      <c r="H16" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I16" s="4" t="inlineStr"/>
+      <c r="J16" s="4" t="inlineStr"/>
+      <c r="K16" s="4" t="inlineStr"/>
+      <c r="L16" s="4" t="inlineStr">
         <is>
           <t>NICE</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="n">
+      <c r="M16" s="4" t="inlineStr"/>
+      <c r="N16" s="4" t="inlineStr"/>
+      <c r="O16" s="4" t="inlineStr"/>
+      <c r="P16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr"/>
-      <c r="S16" s="2" t="inlineStr"/>
-      <c r="T16" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U16" s="2" t="inlineStr"/>
-      <c r="V16" s="2" t="inlineStr"/>
+      <c r="Q16" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R16" s="4" t="inlineStr"/>
+      <c r="S16" s="4" t="inlineStr"/>
+      <c r="T16" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U16" s="4" t="inlineStr"/>
+      <c r="V16" s="4" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr"/>
@@ -1461,52 +1467,52 @@
       <c r="V17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr"/>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr"/>
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Organization for Economic Co-operaion and Development</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr"/>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr"/>
+      <c r="D18" s="4" t="inlineStr"/>
+      <c r="E18" s="4" t="inlineStr"/>
+      <c r="F18" s="4" t="inlineStr"/>
+      <c r="G18" s="4" t="inlineStr"/>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I18" s="4" t="inlineStr"/>
+      <c r="J18" s="4" t="inlineStr"/>
+      <c r="K18" s="4" t="inlineStr"/>
+      <c r="L18" s="4" t="inlineStr">
         <is>
           <t>OECD</t>
         </is>
       </c>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="inlineStr"/>
-      <c r="T18" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U18" s="2" t="inlineStr"/>
-      <c r="V18" s="2" t="inlineStr"/>
+      <c r="M18" s="4" t="inlineStr"/>
+      <c r="N18" s="4" t="inlineStr"/>
+      <c r="O18" s="4" t="inlineStr"/>
+      <c r="P18" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R18" s="4" t="inlineStr"/>
+      <c r="S18" s="4" t="inlineStr"/>
+      <c r="T18" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U18" s="4" t="inlineStr"/>
+      <c r="V18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1579,202 +1585,202 @@
       <c r="V19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr"/>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr"/>
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Puffit</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr"/>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr"/>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R20" s="2" t="inlineStr"/>
-      <c r="S20" s="2" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr"/>
+      <c r="D20" s="4" t="inlineStr"/>
+      <c r="E20" s="4" t="inlineStr"/>
+      <c r="F20" s="4" t="inlineStr"/>
+      <c r="G20" s="4" t="inlineStr"/>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr"/>
+      <c r="J20" s="4" t="inlineStr"/>
+      <c r="K20" s="4" t="inlineStr"/>
+      <c r="L20" s="4" t="inlineStr"/>
+      <c r="M20" s="4" t="inlineStr"/>
+      <c r="N20" s="4" t="inlineStr"/>
+      <c r="O20" s="4" t="inlineStr"/>
+      <c r="P20" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q20" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" s="4" t="inlineStr"/>
+      <c r="S20" s="4" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="T20" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U20" s="2" t="inlineStr"/>
-      <c r="V20" s="2" t="inlineStr"/>
+      <c r="T20" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U20" s="4" t="inlineStr"/>
+      <c r="V20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr"/>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr"/>
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>The American Cancer Society</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr"/>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr"/>
+      <c r="D21" s="4" t="inlineStr"/>
+      <c r="E21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr"/>
+      <c r="G21" s="4" t="inlineStr"/>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
-      <c r="M21" s="2" t="inlineStr"/>
-      <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="n">
+      <c r="J21" s="4" t="inlineStr"/>
+      <c r="K21" s="4" t="inlineStr"/>
+      <c r="L21" s="4" t="inlineStr"/>
+      <c r="M21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr"/>
+      <c r="O21" s="4" t="inlineStr"/>
+      <c r="P21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R21" s="2" t="inlineStr"/>
-      <c r="S21" s="2" t="inlineStr">
+      <c r="Q21" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R21" s="4" t="inlineStr"/>
+      <c r="S21" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T21" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U21" s="2" t="inlineStr"/>
-      <c r="V21" s="2" t="inlineStr"/>
+      <c r="T21" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U21" s="4" t="inlineStr"/>
+      <c r="V21" s="4" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr"/>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr"/>
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>The Psychoactive Surveillance Consortium and Analysis Network (PSCAN)</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr"/>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr"/>
-      <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="inlineStr"/>
-      <c r="M22" s="2" t="inlineStr"/>
-      <c r="N22" s="2" t="inlineStr"/>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr"/>
-      <c r="S22" s="2" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr"/>
+      <c r="D22" s="4" t="inlineStr"/>
+      <c r="E22" s="4" t="inlineStr"/>
+      <c r="F22" s="4" t="inlineStr"/>
+      <c r="G22" s="4" t="inlineStr"/>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr"/>
+      <c r="J22" s="4" t="inlineStr"/>
+      <c r="K22" s="4" t="inlineStr"/>
+      <c r="L22" s="4" t="inlineStr"/>
+      <c r="M22" s="4" t="inlineStr"/>
+      <c r="N22" s="4" t="inlineStr"/>
+      <c r="O22" s="4" t="inlineStr"/>
+      <c r="P22" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q22" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R22" s="4" t="inlineStr"/>
+      <c r="S22" s="4" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U22" s="2" t="inlineStr"/>
-      <c r="V22" s="2" t="inlineStr"/>
+      <c r="T22" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U22" s="4" t="inlineStr"/>
+      <c r="V22" s="4" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000856</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>Volcano</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr"/>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr"/>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr"/>
-      <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr"/>
-      <c r="M23" s="2" t="inlineStr"/>
-      <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q23" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R23" s="2" t="inlineStr"/>
-      <c r="S23" s="2" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr"/>
+      <c r="D23" s="4" t="inlineStr"/>
+      <c r="E23" s="4" t="inlineStr"/>
+      <c r="F23" s="4" t="inlineStr"/>
+      <c r="G23" s="4" t="inlineStr"/>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr"/>
+      <c r="J23" s="4" t="inlineStr"/>
+      <c r="K23" s="4" t="inlineStr"/>
+      <c r="L23" s="4" t="inlineStr"/>
+      <c r="M23" s="4" t="inlineStr"/>
+      <c r="N23" s="4" t="inlineStr"/>
+      <c r="O23" s="4" t="inlineStr"/>
+      <c r="P23" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q23" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R23" s="4" t="inlineStr"/>
+      <c r="S23" s="4" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="T23" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U23" s="2" t="inlineStr"/>
-      <c r="V23" s="2" t="inlineStr"/>
+      <c r="T23" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U23" s="4" t="inlineStr"/>
+      <c r="V23" s="4" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1802,20 +1808,11 @@
           <t>organisation</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>true</t>
@@ -1826,7 +1823,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1837,8 +1833,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -2053,68 +2047,68 @@
       <c r="V27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0001099</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>analytical laboratory</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>An organisation that undertakes assays of presence or amounts of defined chemicals in specifmens</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr"/>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr"/>
+      <c r="E28" s="4" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="F28" s="4" t="inlineStr"/>
+      <c r="G28" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr"/>
-      <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr"/>
-      <c r="L28" s="2" t="inlineStr"/>
-      <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="inlineStr"/>
-      <c r="S28" s="2" t="inlineStr">
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I28" s="4" t="inlineStr"/>
+      <c r="J28" s="4" t="inlineStr"/>
+      <c r="K28" s="4" t="inlineStr"/>
+      <c r="L28" s="4" t="inlineStr"/>
+      <c r="M28" s="4" t="inlineStr"/>
+      <c r="N28" s="4" t="inlineStr"/>
+      <c r="O28" s="4" t="inlineStr"/>
+      <c r="P28" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q28" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R28" s="4" t="inlineStr"/>
+      <c r="S28" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T28" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U28" s="2" t="inlineStr"/>
-      <c r="V28" s="2" t="inlineStr"/>
+      <c r="T28" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U28" s="4" t="inlineStr"/>
+      <c r="V28" s="4" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -2525,144 +2519,144 @@
       <c r="V34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000418</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>convenience store</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr"/>
-      <c r="E35" s="2" t="inlineStr">
+      <c r="D35" s="4" t="inlineStr"/>
+      <c r="E35" s="4" t="inlineStr">
         <is>
           <t>company</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr">
+      <c r="F35" s="4" t="inlineStr"/>
+      <c r="G35" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
+      <c r="H35" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I35" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product </t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr">
+      <c r="J35" s="4" t="inlineStr"/>
+      <c r="K35" s="4" t="inlineStr"/>
+      <c r="L35" s="4" t="inlineStr">
         <is>
           <t>shop; local shop; local store</t>
         </is>
       </c>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="n">
+      <c r="M35" s="4" t="inlineStr"/>
+      <c r="N35" s="4" t="inlineStr"/>
+      <c r="O35" s="4" t="inlineStr"/>
+      <c r="P35" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q35" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R35" s="2" t="inlineStr"/>
-      <c r="S35" s="2" t="inlineStr">
+      <c r="Q35" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R35" s="4" t="inlineStr"/>
+      <c r="S35" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T35" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U35" s="2" t="inlineStr"/>
-      <c r="V35" s="2" t="inlineStr"/>
+      <c r="T35" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U35" s="4" t="inlineStr"/>
+      <c r="V35" s="4" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000419</t>
         </is>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" s="4" t="inlineStr">
         <is>
           <t>An organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr"/>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="D36" s="4" t="inlineStr"/>
+      <c r="E36" s="4" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr">
+      <c r="F36" s="4" t="inlineStr"/>
+      <c r="G36" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
+      <c r="H36" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I36" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="n">
+      <c r="J36" s="4" t="inlineStr"/>
+      <c r="K36" s="4" t="inlineStr"/>
+      <c r="L36" s="4" t="inlineStr"/>
+      <c r="M36" s="4" t="inlineStr"/>
+      <c r="N36" s="4" t="inlineStr"/>
+      <c r="O36" s="4" t="inlineStr"/>
+      <c r="P36" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R36" s="2" t="inlineStr"/>
-      <c r="S36" s="2" t="inlineStr">
+      <c r="Q36" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R36" s="4" t="inlineStr"/>
+      <c r="S36" s="4" t="inlineStr">
         <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="T36" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U36" s="2" t="inlineStr">
+      <c r="T36" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U36" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V36" s="2" t="inlineStr"/>
+      <c r="V36" s="4" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
@@ -2883,74 +2877,74 @@
       <c r="V39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
+      <c r="A40" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000423</t>
         </is>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>e-liquid company</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr"/>
-      <c r="E40" s="2" t="inlineStr">
+      <c r="D40" s="4" t="inlineStr"/>
+      <c r="E40" s="4" t="inlineStr">
         <is>
           <t>e-cigarette organisation</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr">
+      <c r="F40" s="4" t="inlineStr"/>
+      <c r="G40" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="inlineStr">
+      <c r="H40" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I40" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="n">
+      <c r="J40" s="4" t="inlineStr"/>
+      <c r="K40" s="4" t="inlineStr"/>
+      <c r="L40" s="4" t="inlineStr"/>
+      <c r="M40" s="4" t="inlineStr"/>
+      <c r="N40" s="4" t="inlineStr"/>
+      <c r="O40" s="4" t="inlineStr"/>
+      <c r="P40" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q40" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R40" s="2" t="inlineStr"/>
-      <c r="S40" s="2" t="inlineStr">
+      <c r="Q40" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R40" s="4" t="inlineStr"/>
+      <c r="S40" s="4" t="inlineStr">
         <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="T40" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U40" s="2" t="inlineStr">
+      <c r="T40" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U40" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V40" s="2" t="inlineStr"/>
+      <c r="V40" s="4" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -3017,70 +3011,70 @@
       <c r="V41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="A42" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000425</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>government agency</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t>A governmental organisation set up for a purpose.</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr"/>
-      <c r="E42" s="3" t="inlineStr">
+      <c r="D42" s="4" t="inlineStr"/>
+      <c r="E42" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F42" s="3" t="inlineStr"/>
-      <c r="G42" s="3" t="inlineStr">
+      <c r="F42" s="4" t="inlineStr"/>
+      <c r="G42" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H42" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I42" s="3" t="inlineStr"/>
-      <c r="J42" s="3" t="inlineStr"/>
-      <c r="K42" s="3" t="inlineStr"/>
-      <c r="L42" s="3" t="inlineStr"/>
-      <c r="M42" s="3" t="inlineStr"/>
-      <c r="N42" s="3" t="inlineStr">
+      <c r="H42" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I42" s="4" t="inlineStr"/>
+      <c r="J42" s="4" t="inlineStr"/>
+      <c r="K42" s="4" t="inlineStr"/>
+      <c r="L42" s="4" t="inlineStr"/>
+      <c r="M42" s="4" t="inlineStr"/>
+      <c r="N42" s="4" t="inlineStr">
         <is>
           <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
         </is>
       </c>
-      <c r="O42" s="3" t="inlineStr"/>
-      <c r="P42" s="3" t="n">
+      <c r="O42" s="4" t="inlineStr"/>
+      <c r="P42" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q42" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R42" s="3" t="inlineStr"/>
-      <c r="S42" s="3" t="inlineStr">
+      <c r="Q42" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R42" s="4" t="inlineStr"/>
+      <c r="S42" s="4" t="inlineStr">
         <is>
           <t>All</t>
         </is>
       </c>
-      <c r="T42" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="U42" s="3" t="inlineStr"/>
-      <c r="V42" s="3" t="inlineStr"/>
+      <c r="T42" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U42" s="4" t="inlineStr"/>
+      <c r="V42" s="4" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -3178,20 +3172,11 @@
           <t>organisation</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>true</t>
@@ -3202,7 +3187,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3213,8 +3197,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3242,20 +3224,11 @@
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>true</t>
@@ -3266,7 +3239,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3277,8 +3249,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
@@ -3507,48 +3477,48 @@
       <c r="V48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr"/>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="A49" s="4" t="inlineStr"/>
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>independent legal advisory institution</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr"/>
-      <c r="D49" s="2" t="inlineStr"/>
-      <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr"/>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="inlineStr"/>
-      <c r="N49" s="2" t="inlineStr"/>
-      <c r="O49" s="2" t="inlineStr"/>
-      <c r="P49" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q49" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R49" s="2" t="inlineStr"/>
-      <c r="S49" s="2" t="inlineStr"/>
-      <c r="T49" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U49" s="2" t="inlineStr"/>
-      <c r="V49" s="2" t="inlineStr"/>
+      <c r="C49" s="4" t="inlineStr"/>
+      <c r="D49" s="4" t="inlineStr"/>
+      <c r="E49" s="4" t="inlineStr"/>
+      <c r="F49" s="4" t="inlineStr"/>
+      <c r="G49" s="4" t="inlineStr"/>
+      <c r="H49" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I49" s="4" t="inlineStr"/>
+      <c r="J49" s="4" t="inlineStr"/>
+      <c r="K49" s="4" t="inlineStr"/>
+      <c r="L49" s="4" t="inlineStr"/>
+      <c r="M49" s="4" t="inlineStr"/>
+      <c r="N49" s="4" t="inlineStr"/>
+      <c r="O49" s="4" t="inlineStr"/>
+      <c r="P49" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q49" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R49" s="4" t="inlineStr"/>
+      <c r="S49" s="4" t="inlineStr"/>
+      <c r="T49" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U49" s="4" t="inlineStr"/>
+      <c r="V49" s="4" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -3679,66 +3649,66 @@
       <c r="V51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+      <c r="A52" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000881</t>
         </is>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>medical and health care service</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr"/>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="D52" s="4" t="inlineStr"/>
+      <c r="E52" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr">
+      <c r="F52" s="4" t="inlineStr"/>
+      <c r="G52" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="inlineStr"/>
-      <c r="J52" s="2" t="inlineStr"/>
-      <c r="K52" s="2" t="inlineStr"/>
-      <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="inlineStr"/>
-      <c r="N52" s="2" t="inlineStr"/>
-      <c r="O52" s="2" t="inlineStr"/>
-      <c r="P52" s="2" t="n">
+      <c r="H52" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I52" s="4" t="inlineStr"/>
+      <c r="J52" s="4" t="inlineStr"/>
+      <c r="K52" s="4" t="inlineStr"/>
+      <c r="L52" s="4" t="inlineStr"/>
+      <c r="M52" s="4" t="inlineStr"/>
+      <c r="N52" s="4" t="inlineStr"/>
+      <c r="O52" s="4" t="inlineStr"/>
+      <c r="P52" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q52" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R52" s="2" t="inlineStr"/>
-      <c r="S52" s="2" t="inlineStr">
+      <c r="Q52" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R52" s="4" t="inlineStr"/>
+      <c r="S52" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T52" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U52" s="2" t="inlineStr"/>
-      <c r="V52" s="2" t="inlineStr"/>
+      <c r="T52" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U52" s="4" t="inlineStr"/>
+      <c r="V52" s="4" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3766,20 +3736,11 @@
           <t>organisation</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>true</t>
@@ -3790,7 +3751,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3801,8 +3761,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -3890,7 +3848,6 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
           <t>material entity</t>
@@ -3901,8 +3858,6 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
@@ -3913,16 +3868,12 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
         <v>1</v>
       </c>
       <c r="Q55" t="b">
         <v>0</v>
       </c>
-      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr">
         <is>
           <t>RW</t>
@@ -3933,8 +3884,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -4135,48 +4084,48 @@
       <c r="V58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr"/>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="A59" s="4" t="inlineStr"/>
+      <c r="B59" s="4" t="inlineStr">
         <is>
           <t>statutory child protection agency</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr"/>
-      <c r="D59" s="2" t="inlineStr"/>
-      <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr"/>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="inlineStr"/>
-      <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
-      <c r="L59" s="2" t="inlineStr"/>
-      <c r="M59" s="2" t="inlineStr"/>
-      <c r="N59" s="2" t="inlineStr"/>
-      <c r="O59" s="2" t="inlineStr"/>
-      <c r="P59" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q59" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R59" s="2" t="inlineStr"/>
-      <c r="S59" s="2" t="inlineStr"/>
-      <c r="T59" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U59" s="2" t="inlineStr"/>
-      <c r="V59" s="2" t="inlineStr"/>
+      <c r="C59" s="4" t="inlineStr"/>
+      <c r="D59" s="4" t="inlineStr"/>
+      <c r="E59" s="4" t="inlineStr"/>
+      <c r="F59" s="4" t="inlineStr"/>
+      <c r="G59" s="4" t="inlineStr"/>
+      <c r="H59" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I59" s="4" t="inlineStr"/>
+      <c r="J59" s="4" t="inlineStr"/>
+      <c r="K59" s="4" t="inlineStr"/>
+      <c r="L59" s="4" t="inlineStr"/>
+      <c r="M59" s="4" t="inlineStr"/>
+      <c r="N59" s="4" t="inlineStr"/>
+      <c r="O59" s="4" t="inlineStr"/>
+      <c r="P59" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q59" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R59" s="4" t="inlineStr"/>
+      <c r="S59" s="4" t="inlineStr"/>
+      <c r="T59" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U59" s="4" t="inlineStr"/>
+      <c r="V59" s="4" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -4241,82 +4190,82 @@
       <c r="V60" s="2" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
+      <c r="A61" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000435</t>
         </is>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B61" s="4" t="inlineStr">
         <is>
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
         </is>
       </c>
-      <c r="D61" s="2" t="inlineStr"/>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="D61" s="4" t="inlineStr"/>
+      <c r="E61" s="4" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr"/>
-      <c r="G61" s="2" t="inlineStr">
+      <c r="F61" s="4" t="inlineStr"/>
+      <c r="G61" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="inlineStr">
+      <c r="H61" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I61" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr"/>
-      <c r="K61" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L61" s="2" t="inlineStr"/>
-      <c r="M61" s="2" t="inlineStr"/>
-      <c r="N61" s="2" t="inlineStr">
+      <c r="J61" s="4" t="inlineStr"/>
+      <c r="K61" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L61" s="4" t="inlineStr"/>
+      <c r="M61" s="4" t="inlineStr"/>
+      <c r="N61" s="4" t="inlineStr">
         <is>
           <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
         </is>
       </c>
-      <c r="O61" s="2" t="inlineStr"/>
-      <c r="P61" s="2" t="n">
+      <c r="O61" s="4" t="inlineStr"/>
+      <c r="P61" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q61" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R61" s="2" t="inlineStr"/>
-      <c r="S61" s="2" t="inlineStr">
+      <c r="Q61" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R61" s="4" t="inlineStr"/>
+      <c r="S61" s="4" t="inlineStr">
         <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="T61" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U61" s="2" t="inlineStr">
+      <c r="T61" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U61" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V61" s="2" t="inlineStr"/>
+      <c r="V61" s="4" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -665,74 +665,74 @@
       <c r="V3" s="4" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000413</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>British American Tobacco P.L.C.</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>A tobacco company based in London with the company number 03407696.</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>https://www.bat.com/group/sites/uk__9d9kcy.nsf/vwPagesWebLive/DO89KHEK</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr"/>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr"/>
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr"/>
+      <c r="K4" s="4" t="inlineStr"/>
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t>BAT</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="n">
+      <c r="M4" s="4" t="inlineStr"/>
+      <c r="N4" s="4" t="inlineStr"/>
+      <c r="O4" s="4" t="inlineStr"/>
+      <c r="P4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr"/>
-      <c r="S4" s="2" t="inlineStr">
+      <c r="Q4" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R4" s="4" t="inlineStr"/>
+      <c r="S4" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr"/>
-      <c r="V4" s="2" t="inlineStr"/>
+      <c r="T4" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U4" s="4" t="inlineStr"/>
+      <c r="V4" s="4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr"/>
@@ -931,78 +931,78 @@
       <c r="V8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000871</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>Centers for Disease Control</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>The US government agency that has responsibility for health protection.</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr"/>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr"/>
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">government agency </t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>government agency</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">government agency </t>
         </is>
       </c>
-      <c r="J9" s="3" t="inlineStr"/>
-      <c r="K9" s="3" t="inlineStr"/>
-      <c r="L9" s="3" t="inlineStr">
+      <c r="J9" s="4" t="inlineStr"/>
+      <c r="K9" s="4" t="inlineStr"/>
+      <c r="L9" s="4" t="inlineStr">
         <is>
           <t>CDC</t>
         </is>
       </c>
-      <c r="M9" s="3" t="inlineStr"/>
-      <c r="N9" s="3" t="inlineStr"/>
-      <c r="O9" s="3" t="inlineStr"/>
-      <c r="P9" s="3" t="n">
+      <c r="M9" s="4" t="inlineStr"/>
+      <c r="N9" s="4" t="inlineStr"/>
+      <c r="O9" s="4" t="inlineStr"/>
+      <c r="P9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R9" s="3" t="inlineStr"/>
-      <c r="S9" s="3" t="inlineStr">
+      <c r="Q9" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R9" s="4" t="inlineStr"/>
+      <c r="S9" s="4" t="inlineStr">
         <is>
           <t>All; SC</t>
         </is>
       </c>
-      <c r="T9" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="U9" s="3" t="inlineStr"/>
-      <c r="V9" s="3" t="inlineStr"/>
+      <c r="T9" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U9" s="4" t="inlineStr"/>
+      <c r="V9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr"/>
@@ -1091,74 +1091,74 @@
       <c r="V11" s="4" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000872</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>Food and Drug Administration</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>The US government agency that has statutary responsibility for regulation of medicinal products.</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr"/>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr"/>
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">government agency </t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>government agency</t>
         </is>
       </c>
-      <c r="G12" s="3" t="inlineStr">
+      <c r="G12" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">regulatory agency </t>
         </is>
       </c>
-      <c r="J12" s="3" t="inlineStr"/>
-      <c r="K12" s="3" t="inlineStr"/>
-      <c r="L12" s="3" t="inlineStr"/>
-      <c r="M12" s="3" t="inlineStr"/>
-      <c r="N12" s="3" t="inlineStr"/>
-      <c r="O12" s="3" t="inlineStr"/>
-      <c r="P12" s="3" t="n">
+      <c r="J12" s="4" t="inlineStr"/>
+      <c r="K12" s="4" t="inlineStr"/>
+      <c r="L12" s="4" t="inlineStr"/>
+      <c r="M12" s="4" t="inlineStr"/>
+      <c r="N12" s="4" t="inlineStr"/>
+      <c r="O12" s="4" t="inlineStr"/>
+      <c r="P12" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R12" s="3" t="inlineStr"/>
-      <c r="S12" s="3" t="inlineStr">
+      <c r="Q12" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R12" s="4" t="inlineStr"/>
+      <c r="S12" s="4" t="inlineStr">
         <is>
           <t>All; SC</t>
         </is>
       </c>
-      <c r="T12" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="U12" s="3" t="inlineStr"/>
-      <c r="V12" s="3" t="inlineStr"/>
+      <c r="T12" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U12" s="4" t="inlineStr"/>
+      <c r="V12" s="4" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1227,144 +1227,144 @@
       <c r="V13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000874</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>JUUL labs</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">An e-cigarette organisation with headquarters based in San Francisco. </t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr"/>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr"/>
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr"/>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr"/>
+      <c r="G14" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I14" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>tobacco funding</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="n">
+      <c r="K14" s="4" t="inlineStr"/>
+      <c r="L14" s="4" t="inlineStr"/>
+      <c r="M14" s="4" t="inlineStr"/>
+      <c r="N14" s="4" t="inlineStr"/>
+      <c r="O14" s="4" t="inlineStr"/>
+      <c r="P14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr"/>
-      <c r="S14" s="2" t="inlineStr">
+      <c r="Q14" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R14" s="4" t="inlineStr"/>
+      <c r="S14" s="4" t="inlineStr">
         <is>
           <t>SC; KS</t>
         </is>
       </c>
-      <c r="T14" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U14" s="2" t="inlineStr"/>
-      <c r="V14" s="2" t="inlineStr">
+      <c r="T14" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U14" s="4" t="inlineStr"/>
+      <c r="V14" s="4" t="inlineStr">
         <is>
           <t>KS - I don't think we should specify location, as they could move their labs, but the entity would still remain the same</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000875</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>National Health Service</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A medical and health care service that is publicly funded to provide care for people in the UK. </t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr"/>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr"/>
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">medical and health care service </t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr"/>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr"/>
+      <c r="G15" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="H15" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I15" s="4" t="inlineStr"/>
+      <c r="J15" s="4" t="inlineStr"/>
+      <c r="K15" s="4" t="inlineStr"/>
+      <c r="L15" s="4" t="inlineStr">
         <is>
           <t>NHS</t>
         </is>
       </c>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="n">
+      <c r="M15" s="4" t="inlineStr"/>
+      <c r="N15" s="4" t="inlineStr"/>
+      <c r="O15" s="4" t="inlineStr"/>
+      <c r="P15" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R15" s="2" t="inlineStr"/>
-      <c r="S15" s="2" t="inlineStr">
+      <c r="Q15" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R15" s="4" t="inlineStr"/>
+      <c r="S15" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T15" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U15" s="2" t="inlineStr"/>
-      <c r="V15" s="2" t="inlineStr"/>
+      <c r="T15" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U15" s="4" t="inlineStr"/>
+      <c r="V15" s="4" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr"/>
@@ -1515,74 +1515,74 @@
       <c r="V18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000432</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>Philip Morris International</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>A tobacco company based in Switzerland with the business identification number CHE-105.950.151.</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>https://www.pmi.com/company-information</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr"/>
+      <c r="G19" s="4" t="inlineStr"/>
+      <c r="H19" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I19" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="inlineStr">
+      <c r="J19" s="4" t="inlineStr"/>
+      <c r="K19" s="4" t="inlineStr"/>
+      <c r="L19" s="4" t="inlineStr">
         <is>
           <t>PMI</t>
         </is>
       </c>
-      <c r="M19" s="2" t="inlineStr"/>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="n">
+      <c r="M19" s="4" t="inlineStr"/>
+      <c r="N19" s="4" t="inlineStr"/>
+      <c r="O19" s="4" t="inlineStr"/>
+      <c r="P19" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr"/>
-      <c r="S19" s="2" t="inlineStr">
+      <c r="Q19" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R19" s="4" t="inlineStr"/>
+      <c r="S19" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="inlineStr"/>
-      <c r="V19" s="2" t="inlineStr"/>
+      <c r="T19" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U19" s="4" t="inlineStr"/>
+      <c r="V19" s="4" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr"/>
@@ -2733,78 +2733,78 @@
       <c r="V37" s="3" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+      <c r="A38" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000421</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components or e-liquid to consumers.</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr"/>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="D38" s="4" t="inlineStr"/>
+      <c r="E38" s="4" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr">
+      <c r="F38" s="4" t="inlineStr"/>
+      <c r="G38" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
+      <c r="H38" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I38" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; retailer of product </t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr">
+      <c r="J38" s="4" t="inlineStr"/>
+      <c r="K38" s="4" t="inlineStr"/>
+      <c r="L38" s="4" t="inlineStr">
         <is>
           <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
         </is>
       </c>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="n">
+      <c r="M38" s="4" t="inlineStr"/>
+      <c r="N38" s="4" t="inlineStr"/>
+      <c r="O38" s="4" t="inlineStr"/>
+      <c r="P38" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R38" s="2" t="inlineStr"/>
-      <c r="S38" s="2" t="inlineStr">
+      <c r="Q38" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R38" s="4" t="inlineStr"/>
+      <c r="S38" s="4" t="inlineStr">
         <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="T38" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U38" s="2" t="inlineStr">
+      <c r="T38" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U38" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V38" s="2" t="inlineStr"/>
+      <c r="V38" s="4" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -3251,82 +3251,82 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="A46" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000426</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>independent e-cigarette company</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="C46" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="D46" s="3" t="inlineStr"/>
-      <c r="E46" s="3" t="inlineStr">
+      <c r="D46" s="4" t="inlineStr"/>
+      <c r="E46" s="4" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F46" s="3" t="inlineStr"/>
-      <c r="G46" s="3" t="inlineStr">
+      <c r="F46" s="4" t="inlineStr"/>
+      <c r="G46" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H46" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I46" s="3" t="inlineStr">
+      <c r="H46" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I46" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J46" s="3" t="inlineStr"/>
-      <c r="K46" s="3" t="inlineStr"/>
-      <c r="L46" s="3" t="inlineStr">
+      <c r="J46" s="4" t="inlineStr"/>
+      <c r="K46" s="4" t="inlineStr"/>
+      <c r="L46" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Independent vape company; Independent vape business; vape company </t>
         </is>
       </c>
-      <c r="M46" s="3" t="inlineStr"/>
-      <c r="N46" s="3" t="inlineStr">
+      <c r="M46" s="4" t="inlineStr"/>
+      <c r="N46" s="4" t="inlineStr">
         <is>
           <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
         </is>
       </c>
-      <c r="O46" s="3" t="inlineStr"/>
-      <c r="P46" s="3" t="n">
+      <c r="O46" s="4" t="inlineStr"/>
+      <c r="P46" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q46" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R46" s="3" t="inlineStr"/>
-      <c r="S46" s="3" t="inlineStr">
+      <c r="Q46" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R46" s="4" t="inlineStr"/>
+      <c r="S46" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T46" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="U46" s="3" t="inlineStr">
+      <c r="T46" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U46" s="4" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="V46" s="3" t="inlineStr"/>
+      <c r="V46" s="4" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -4470,74 +4470,74 @@
       <c r="V64" s="2" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr">
+      <c r="A65" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000438</t>
         </is>
       </c>
-      <c r="B65" s="2" t="inlineStr">
+      <c r="B65" s="4" t="inlineStr">
         <is>
           <t>tobacco retailer</t>
         </is>
       </c>
-      <c r="C65" s="2" t="inlineStr">
+      <c r="C65" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
         </is>
       </c>
-      <c r="D65" s="2" t="inlineStr"/>
-      <c r="E65" s="2" t="inlineStr">
+      <c r="D65" s="4" t="inlineStr"/>
+      <c r="E65" s="4" t="inlineStr">
         <is>
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F65" s="2" t="inlineStr"/>
-      <c r="G65" s="2" t="inlineStr">
+      <c r="F65" s="4" t="inlineStr"/>
+      <c r="G65" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H65" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I65" s="2" t="inlineStr">
+      <c r="H65" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I65" s="4" t="inlineStr">
         <is>
           <t>retailer of product</t>
         </is>
       </c>
-      <c r="J65" s="2" t="inlineStr"/>
-      <c r="K65" s="2" t="inlineStr"/>
-      <c r="L65" s="2" t="inlineStr"/>
-      <c r="M65" s="2" t="inlineStr"/>
-      <c r="N65" s="2" t="inlineStr"/>
-      <c r="O65" s="2" t="inlineStr"/>
-      <c r="P65" s="2" t="n">
+      <c r="J65" s="4" t="inlineStr"/>
+      <c r="K65" s="4" t="inlineStr"/>
+      <c r="L65" s="4" t="inlineStr"/>
+      <c r="M65" s="4" t="inlineStr"/>
+      <c r="N65" s="4" t="inlineStr"/>
+      <c r="O65" s="4" t="inlineStr"/>
+      <c r="P65" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q65" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R65" s="2" t="inlineStr"/>
-      <c r="S65" s="2" t="inlineStr">
+      <c r="Q65" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R65" s="4" t="inlineStr"/>
+      <c r="S65" s="4" t="inlineStr">
         <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="T65" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U65" s="2" t="inlineStr">
+      <c r="T65" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U65" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V65" s="2" t="inlineStr"/>
+      <c r="V65" s="4" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -2807,74 +2807,74 @@
       <c r="V38" s="4" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
+      <c r="A39" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000422</t>
         </is>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>e-cigarette shop</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr"/>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="D39" s="4" t="inlineStr"/>
+      <c r="E39" s="4" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr">
+      <c r="F39" s="4" t="inlineStr"/>
+      <c r="G39" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
+      <c r="H39" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I39" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="n">
+      <c r="J39" s="4" t="inlineStr"/>
+      <c r="K39" s="4" t="inlineStr"/>
+      <c r="L39" s="4" t="inlineStr"/>
+      <c r="M39" s="4" t="inlineStr"/>
+      <c r="N39" s="4" t="inlineStr"/>
+      <c r="O39" s="4" t="inlineStr"/>
+      <c r="P39" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q39" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R39" s="2" t="inlineStr"/>
-      <c r="S39" s="2" t="inlineStr">
+      <c r="Q39" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R39" s="4" t="inlineStr"/>
+      <c r="S39" s="4" t="inlineStr">
         <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="T39" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U39" s="2" t="inlineStr">
+      <c r="T39" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U39" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V39" s="2" t="inlineStr"/>
+      <c r="V39" s="4" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -3403,78 +3403,78 @@
       <c r="V47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+      <c r="A48" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000829</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>independent e-cigarette retailer</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr"/>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="D48" s="4" t="inlineStr"/>
+      <c r="E48" s="4" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr">
+      <c r="F48" s="4" t="inlineStr"/>
+      <c r="G48" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="inlineStr">
+      <c r="H48" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I48" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr">
+      <c r="J48" s="4" t="inlineStr"/>
+      <c r="K48" s="4" t="inlineStr"/>
+      <c r="L48" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
         </is>
       </c>
-      <c r="M48" s="2" t="inlineStr"/>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr"/>
-      <c r="P48" s="2" t="n">
+      <c r="M48" s="4" t="inlineStr"/>
+      <c r="N48" s="4" t="inlineStr"/>
+      <c r="O48" s="4" t="inlineStr"/>
+      <c r="P48" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q48" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R48" s="2" t="inlineStr"/>
-      <c r="S48" s="2" t="inlineStr">
+      <c r="Q48" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R48" s="4" t="inlineStr"/>
+      <c r="S48" s="4" t="inlineStr">
         <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="T48" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U48" s="2" t="inlineStr">
+      <c r="T48" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U48" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V48" s="2" t="inlineStr"/>
+      <c r="V48" s="4" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr"/>
@@ -4400,74 +4400,74 @@
       <c r="V63" s="2" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
+      <c r="A64" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000437</t>
         </is>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" s="4" t="inlineStr">
         <is>
           <t>tobacco retail outlet</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" s="4" t="inlineStr">
         <is>
           <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D64" s="2" t="inlineStr"/>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="D64" s="4" t="inlineStr"/>
+      <c r="E64" s="4" t="inlineStr">
         <is>
           <t>tobacco retailer</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr"/>
-      <c r="G64" s="2" t="inlineStr">
+      <c r="F64" s="4" t="inlineStr"/>
+      <c r="G64" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="inlineStr">
+      <c r="H64" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I64" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J64" s="2" t="inlineStr"/>
-      <c r="K64" s="2" t="inlineStr"/>
-      <c r="L64" s="2" t="inlineStr"/>
-      <c r="M64" s="2" t="inlineStr"/>
-      <c r="N64" s="2" t="inlineStr"/>
-      <c r="O64" s="2" t="inlineStr"/>
-      <c r="P64" s="2" t="n">
+      <c r="J64" s="4" t="inlineStr"/>
+      <c r="K64" s="4" t="inlineStr"/>
+      <c r="L64" s="4" t="inlineStr"/>
+      <c r="M64" s="4" t="inlineStr"/>
+      <c r="N64" s="4" t="inlineStr"/>
+      <c r="O64" s="4" t="inlineStr"/>
+      <c r="P64" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q64" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R64" s="2" t="inlineStr"/>
-      <c r="S64" s="2" t="inlineStr">
+      <c r="Q64" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R64" s="4" t="inlineStr"/>
+      <c r="S64" s="4" t="inlineStr">
         <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="T64" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U64" s="2" t="inlineStr">
+      <c r="T64" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U64" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V64" s="2" t="inlineStr"/>
+      <c r="V64" s="4" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
@@ -4540,74 +4540,74 @@
       <c r="V65" s="4" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
+      <c r="A66" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000439</t>
         </is>
       </c>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="B66" s="4" t="inlineStr">
         <is>
           <t>tobacconist</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="C66" s="4" t="inlineStr">
         <is>
           <t>A tobacco retailer that has a physical outlet where tobacco products are the major part of their product range.</t>
         </is>
       </c>
-      <c r="D66" s="2" t="inlineStr"/>
-      <c r="E66" s="2" t="inlineStr">
+      <c r="D66" s="4" t="inlineStr"/>
+      <c r="E66" s="4" t="inlineStr">
         <is>
           <t>tobacco retailer</t>
         </is>
       </c>
-      <c r="F66" s="2" t="inlineStr"/>
-      <c r="G66" s="2" t="inlineStr">
+      <c r="F66" s="4" t="inlineStr"/>
+      <c r="G66" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H66" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I66" s="2" t="inlineStr">
+      <c r="H66" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I66" s="4" t="inlineStr">
         <is>
           <t>retailer of product</t>
         </is>
       </c>
-      <c r="J66" s="2" t="inlineStr"/>
-      <c r="K66" s="2" t="inlineStr"/>
-      <c r="L66" s="2" t="inlineStr"/>
-      <c r="M66" s="2" t="inlineStr"/>
-      <c r="N66" s="2" t="inlineStr"/>
-      <c r="O66" s="2" t="inlineStr"/>
-      <c r="P66" s="2" t="n">
+      <c r="J66" s="4" t="inlineStr"/>
+      <c r="K66" s="4" t="inlineStr"/>
+      <c r="L66" s="4" t="inlineStr"/>
+      <c r="M66" s="4" t="inlineStr"/>
+      <c r="N66" s="4" t="inlineStr"/>
+      <c r="O66" s="4" t="inlineStr"/>
+      <c r="P66" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q66" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R66" s="2" t="inlineStr"/>
-      <c r="S66" s="2" t="inlineStr">
+      <c r="Q66" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R66" s="4" t="inlineStr"/>
+      <c r="S66" s="4" t="inlineStr">
         <is>
           <t>SC; JH; KS</t>
         </is>
       </c>
-      <c r="T66" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U66" s="2" t="inlineStr">
+      <c r="T66" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U66" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V66" s="2" t="inlineStr"/>
+      <c r="V66" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -1413,58 +1413,58 @@
       <c r="V16" s="4" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr"/>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr"/>
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">National Institute of Health Research </t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
-      <c r="G17" s="2" t="inlineStr"/>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr"/>
+      <c r="D17" s="4" t="inlineStr"/>
+      <c r="E17" s="4" t="inlineStr"/>
+      <c r="F17" s="4" t="inlineStr"/>
+      <c r="G17" s="4" t="inlineStr"/>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I17" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="J17" s="4" t="inlineStr"/>
+      <c r="K17" s="4" t="inlineStr"/>
+      <c r="L17" s="4" t="inlineStr">
         <is>
           <t>NIHR</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="n">
+      <c r="M17" s="4" t="inlineStr"/>
+      <c r="N17" s="4" t="inlineStr"/>
+      <c r="O17" s="4" t="inlineStr"/>
+      <c r="P17" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R17" s="2" t="inlineStr"/>
-      <c r="S17" s="2" t="inlineStr">
+      <c r="Q17" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R17" s="4" t="inlineStr"/>
+      <c r="S17" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T17" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U17" s="2" t="inlineStr"/>
-      <c r="V17" s="2" t="inlineStr"/>
+      <c r="T17" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U17" s="4" t="inlineStr"/>
+      <c r="V17" s="4" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr"/>
@@ -1835,72 +1835,72 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0001097</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol change UK </t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A British alcohol charity and campaign group that was founded in 1984 whose aim is to reduce the harm caused by alcohol. </t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr"/>
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol charity </t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr"/>
+      <c r="G25" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
+      <c r="H25" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">grant agency; charity </t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R25" s="2" t="inlineStr"/>
-      <c r="S25" s="2" t="inlineStr">
+      <c r="J25" s="4" t="inlineStr"/>
+      <c r="K25" s="4" t="inlineStr"/>
+      <c r="L25" s="4" t="inlineStr"/>
+      <c r="M25" s="4" t="inlineStr"/>
+      <c r="N25" s="4" t="inlineStr"/>
+      <c r="O25" s="4" t="inlineStr"/>
+      <c r="P25" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q25" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R25" s="4" t="inlineStr"/>
+      <c r="S25" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T25" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr"/>
+      <c r="T25" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U25" s="4" t="inlineStr"/>
+      <c r="V25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -1975,76 +1975,76 @@
       <c r="V26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0001098</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol organistion </t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">An organisation which specifically raises income for the purpose of the prevention and treatment of alcohol related problems. </t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr"/>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr"/>
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr">
+      <c r="F27" s="4" t="inlineStr"/>
+      <c r="G27" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
+      <c r="H27" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I27" s="4" t="inlineStr">
         <is>
           <t>grant agency</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="inlineStr">
+      <c r="J27" s="4" t="inlineStr"/>
+      <c r="K27" s="4" t="inlineStr"/>
+      <c r="L27" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol harm prevention organisation </t>
         </is>
       </c>
-      <c r="M27" s="2" t="inlineStr"/>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q27" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R27" s="2" t="inlineStr"/>
-      <c r="S27" s="2" t="inlineStr">
+      <c r="M27" s="4" t="inlineStr"/>
+      <c r="N27" s="4" t="inlineStr"/>
+      <c r="O27" s="4" t="inlineStr"/>
+      <c r="P27" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q27" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R27" s="4" t="inlineStr"/>
+      <c r="S27" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T27" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U27" s="2" t="inlineStr"/>
-      <c r="V27" s="2" t="inlineStr"/>
+      <c r="T27" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U27" s="4" t="inlineStr"/>
+      <c r="V27" s="4" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -2111,142 +2111,142 @@
       <c r="V28" s="4" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0001100</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>An organisation which specifically raises income for the purpose of the prevention and treatment of cancer.</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr"/>
-      <c r="E29" s="2" t="inlineStr">
+      <c r="D29" s="4" t="inlineStr"/>
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr">
+      <c r="F29" s="4" t="inlineStr"/>
+      <c r="G29" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I29" s="4" t="inlineStr">
         <is>
           <t>charity</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr">
+      <c r="J29" s="4" t="inlineStr"/>
+      <c r="K29" s="4" t="inlineStr"/>
+      <c r="L29" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer prevention organisation </t>
         </is>
       </c>
-      <c r="M29" s="2" t="inlineStr"/>
-      <c r="N29" s="2" t="inlineStr"/>
-      <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="n">
+      <c r="M29" s="4" t="inlineStr"/>
+      <c r="N29" s="4" t="inlineStr"/>
+      <c r="O29" s="4" t="inlineStr"/>
+      <c r="P29" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R29" s="2" t="inlineStr"/>
-      <c r="S29" s="2" t="inlineStr">
+      <c r="Q29" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R29" s="4" t="inlineStr"/>
+      <c r="S29" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T29" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U29" s="2" t="inlineStr"/>
-      <c r="V29" s="2" t="inlineStr"/>
+      <c r="T29" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U29" s="4" t="inlineStr"/>
+      <c r="V29" s="4" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000414</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="D30" s="4" t="inlineStr"/>
+      <c r="E30" s="4" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr">
+      <c r="F30" s="4" t="inlineStr"/>
+      <c r="G30" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
+      <c r="H30" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I30" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R30" s="2" t="inlineStr"/>
-      <c r="S30" s="2" t="inlineStr">
+      <c r="J30" s="4" t="inlineStr"/>
+      <c r="K30" s="4" t="inlineStr"/>
+      <c r="L30" s="4" t="inlineStr"/>
+      <c r="M30" s="4" t="inlineStr"/>
+      <c r="N30" s="4" t="inlineStr"/>
+      <c r="O30" s="4" t="inlineStr"/>
+      <c r="P30" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q30" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R30" s="4" t="inlineStr"/>
+      <c r="S30" s="4" t="inlineStr">
         <is>
           <t>SC; JH; KS</t>
         </is>
       </c>
-      <c r="T30" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U30" s="2" t="inlineStr"/>
-      <c r="V30" s="2" t="inlineStr"/>
+      <c r="T30" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U30" s="4" t="inlineStr"/>
+      <c r="V30" s="4" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -3952,74 +3952,74 @@
       <c r="V56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+      <c r="A57" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0001103</t>
         </is>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">research organisation </t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>An organisation formed with a goal to have its members conduct investigations.</t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr">
+      <c r="D57" s="4" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBI_0000828</t>
         </is>
       </c>
-      <c r="E57" s="2" t="inlineStr">
+      <c r="E57" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr">
+      <c r="F57" s="4" t="inlineStr"/>
+      <c r="G57" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I57" s="2" t="inlineStr"/>
-      <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr"/>
-      <c r="L57" s="2" t="inlineStr"/>
-      <c r="M57" s="2" t="inlineStr"/>
-      <c r="N57" s="2" t="inlineStr"/>
-      <c r="O57" s="2" t="inlineStr"/>
-      <c r="P57" s="2" t="n">
+      <c r="H57" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I57" s="4" t="inlineStr"/>
+      <c r="J57" s="4" t="inlineStr"/>
+      <c r="K57" s="4" t="inlineStr"/>
+      <c r="L57" s="4" t="inlineStr"/>
+      <c r="M57" s="4" t="inlineStr"/>
+      <c r="N57" s="4" t="inlineStr"/>
+      <c r="O57" s="4" t="inlineStr"/>
+      <c r="P57" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q57" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R57" s="2" t="inlineStr"/>
-      <c r="S57" s="2" t="inlineStr">
+      <c r="Q57" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R57" s="4" t="inlineStr"/>
+      <c r="S57" s="4" t="inlineStr">
         <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="T57" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U57" s="2" t="inlineStr">
+      <c r="T57" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U57" s="4" t="inlineStr">
         <is>
           <t>RW; CN</t>
         </is>
       </c>
-      <c r="V57" s="2" t="inlineStr"/>
+      <c r="V57" s="4" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -819,74 +819,74 @@
       <c r="V6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000870</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Cancer Research UK</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>A cancer charity that is focused on cancer research within the UK with a company number 4355631.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr"/>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr"/>
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">grant agency; charity  </t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
-      <c r="L7" s="2" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr"/>
+      <c r="K7" s="4" t="inlineStr"/>
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">CRUK </t>
         </is>
       </c>
-      <c r="M7" s="2" t="inlineStr"/>
-      <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr"/>
-      <c r="P7" s="2" t="n">
+      <c r="M7" s="4" t="inlineStr"/>
+      <c r="N7" s="4" t="inlineStr"/>
+      <c r="O7" s="4" t="inlineStr"/>
+      <c r="P7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R7" s="2" t="inlineStr"/>
-      <c r="S7" s="2" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R7" s="4" t="inlineStr"/>
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T7" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U7" s="2" t="inlineStr"/>
-      <c r="V7" s="2" t="inlineStr"/>
+      <c r="T7" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U7" s="4" t="inlineStr"/>
+      <c r="V7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr"/>
@@ -1161,70 +1161,70 @@
       <c r="V12" s="4" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000873</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>Irish Cancer Society</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>A cancer charity that is focused on cancer research and care in Ireland with a the charity number CHY5863.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr"/>
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr"/>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr"/>
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">grant agency; charity </t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="n">
+      <c r="J13" s="4" t="inlineStr"/>
+      <c r="K13" s="4" t="inlineStr"/>
+      <c r="L13" s="4" t="inlineStr"/>
+      <c r="M13" s="4" t="inlineStr"/>
+      <c r="N13" s="4" t="inlineStr"/>
+      <c r="O13" s="4" t="inlineStr"/>
+      <c r="P13" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R13" s="2" t="inlineStr"/>
-      <c r="S13" s="2" t="inlineStr">
+      <c r="Q13" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R13" s="4" t="inlineStr"/>
+      <c r="S13" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T13" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U13" s="2" t="inlineStr"/>
-      <c r="V13" s="2" t="inlineStr"/>
+      <c r="T13" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U13" s="4" t="inlineStr"/>
+      <c r="V13" s="4" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -2385,72 +2385,72 @@
       <c r="V32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
+      <c r="A33" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000417</t>
         </is>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">cannabis retailer </t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr"/>
-      <c r="E33" s="2" t="inlineStr">
+      <c r="D33" s="4" t="inlineStr"/>
+      <c r="E33" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr">
+      <c r="F33" s="4" t="inlineStr"/>
+      <c r="G33" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
+      <c r="H33" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I33" s="4" t="inlineStr">
         <is>
           <t>supplier of product</t>
         </is>
       </c>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="inlineStr"/>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
-      <c r="P33" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q33" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R33" s="2" t="inlineStr"/>
-      <c r="S33" s="2" t="inlineStr">
+      <c r="J33" s="4" t="inlineStr"/>
+      <c r="K33" s="4" t="inlineStr"/>
+      <c r="L33" s="4" t="inlineStr"/>
+      <c r="M33" s="4" t="inlineStr"/>
+      <c r="N33" s="4" t="inlineStr"/>
+      <c r="O33" s="4" t="inlineStr"/>
+      <c r="P33" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q33" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R33" s="4" t="inlineStr"/>
+      <c r="S33" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T33" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U33" s="2" t="inlineStr"/>
-      <c r="V33" s="2" t="inlineStr"/>
+      <c r="T33" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U33" s="4" t="inlineStr"/>
+      <c r="V33" s="4" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -2317,72 +2317,72 @@
       <c r="V31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000416</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>cannabis retail outlet</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr"/>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="D32" s="4" t="inlineStr"/>
+      <c r="E32" s="4" t="inlineStr">
         <is>
           <t>cannabis retailer</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr">
+      <c r="F32" s="4" t="inlineStr"/>
+      <c r="G32" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
+      <c r="H32" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I32" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product </t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
-      <c r="P32" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q32" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R32" s="2" t="inlineStr"/>
-      <c r="S32" s="2" t="inlineStr">
+      <c r="J32" s="4" t="inlineStr"/>
+      <c r="K32" s="4" t="inlineStr"/>
+      <c r="L32" s="4" t="inlineStr"/>
+      <c r="M32" s="4" t="inlineStr"/>
+      <c r="N32" s="4" t="inlineStr"/>
+      <c r="O32" s="4" t="inlineStr"/>
+      <c r="P32" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q32" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R32" s="4" t="inlineStr"/>
+      <c r="S32" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T32" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U32" s="2" t="inlineStr"/>
-      <c r="V32" s="2" t="inlineStr"/>
+      <c r="T32" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U32" s="4" t="inlineStr"/>
+      <c r="V32" s="4" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
